--- a/swings/2021-11-22/KUCOIN_SPOT_VRA_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_VRA_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.0607219</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1045,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1077,6 +1098,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1131,6 +1153,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.06134385000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1183,6 +1208,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1235,6 +1261,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1287,6 +1314,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1341,6 +1369,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.05884543</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1393,6 +1424,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1447,6 +1479,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.05958257</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1501,6 +1536,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.059</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1593,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.05919336</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1648,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1661,6 +1703,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.05803000000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1713,6 +1758,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1765,6 +1811,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1819,6 +1866,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.0590368</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1871,6 +1921,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1923,6 +1974,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1977,6 +2029,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.05803000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2031,6 +2086,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.05856196</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2083,6 +2141,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2135,6 +2194,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2189,6 +2249,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.0578</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2241,6 +2304,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2295,6 +2359,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.05919336</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2416,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.05891557</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2401,6 +2471,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2453,6 +2524,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2507,6 +2579,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.05935482</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2559,6 +2634,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2613,6 +2689,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.05854195</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2665,6 +2744,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2717,6 +2797,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2769,6 +2850,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2823,6 +2905,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.06038677000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2875,6 +2960,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2927,6 +3013,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2979,6 +3066,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3031,6 +3119,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3083,6 +3172,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3135,6 +3225,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3189,6 +3280,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.05886537000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3241,6 +3335,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3293,6 +3388,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3345,6 +3441,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3397,6 +3494,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3451,6 +3549,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.06021249</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3503,6 +3604,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3557,6 +3659,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.0596059</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3609,6 +3714,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3663,6 +3769,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>0.06019989000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3717,6 +3826,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.0590391</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3769,6 +3881,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3823,6 +3936,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.05961351</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3875,6 +3991,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3929,6 +4046,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.05827072000000001</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3983,6 +4103,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.05884983000000001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4037,6 +4160,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.0584109</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4091,6 +4217,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.05897013</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4143,6 +4272,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4195,6 +4325,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4249,6 +4380,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.05780009000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4301,6 +4435,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4355,6 +4490,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.0595</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4409,6 +4547,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.05867415</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4461,6 +4602,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4515,6 +4657,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.05980000000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,6 +4712,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4619,6 +4765,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4671,6 +4818,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4723,6 +4871,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4777,6 +4926,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.0578</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4831,6 +4983,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.06100000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4885,6 +5040,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.0601906</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4937,6 +5095,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4991,6 +5150,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.06098000000000001</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5043,6 +5205,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5097,6 +5260,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.05914729000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5149,6 +5315,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5203,6 +5370,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.05989632</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5255,6 +5425,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5309,6 +5480,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.0592</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5363,6 +5537,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.06049</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5417,6 +5594,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.05930000000000001</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5471,6 +5651,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.05960047</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5523,6 +5706,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5577,6 +5761,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.0588745</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5629,6 +5816,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5681,6 +5869,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5735,6 +5924,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.05936231</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5789,6 +5981,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.05871000000000001</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5843,6 +6038,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.05923275</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5895,6 +6093,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5947,6 +6146,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5999,6 +6199,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6053,6 +6254,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.05821202</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6105,6 +6309,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6159,6 +6364,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.05876476000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6211,6 +6419,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6265,6 +6474,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.05803000000000001</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6319,6 +6531,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.05826433</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6371,6 +6586,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6423,6 +6639,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6475,6 +6692,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6527,6 +6745,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6581,6 +6800,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.0566</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6635,6 +6857,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.05812895000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6689,6 +6914,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0.0566</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6743,6 +6971,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.0578</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6795,6 +7026,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6849,6 +7081,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.0565</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6903,6 +7138,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.05781647</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6957,6 +7195,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.0572001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7011,6 +7252,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.0575</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7063,6 +7307,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7115,6 +7360,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7169,6 +7415,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.0565</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7223,6 +7472,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.05712919</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7277,6 +7529,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.056593</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7329,6 +7584,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7383,6 +7639,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.05771426</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7437,6 +7696,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.05657374</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7489,6 +7751,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7541,6 +7804,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7593,6 +7857,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7645,6 +7910,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7697,6 +7963,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7749,6 +8016,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7803,6 +8071,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>0.05899500000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7857,6 +8128,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.05795</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7909,6 +8183,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7963,6 +8238,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>0.06086</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8015,6 +8293,7 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8069,6 +8348,9 @@
           <t>VRAUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>0.05847728000000001</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8122,6 +8404,9 @@
         <is>
           <t>VRAUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.05899341</v>
       </c>
     </row>
   </sheetData>
